--- a/src/testfile.xlsx
+++ b/src/testfile.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3C90D3-7FB0-41C4-B7E5-AF999920429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C4B12-2D1A-40EA-BE9D-4522D1886053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>chrome</t>
   </si>
@@ -101,13 +101,19 @@
     <t>ajayd@ifieldsmart.com</t>
   </si>
   <si>
-    <t>123456a</t>
-  </si>
-  <si>
     <t>Sumeetgm89@gmail.com</t>
   </si>
   <si>
-    <t>password@123</t>
+    <t>omkrushana@ifieldsmart.com</t>
+  </si>
+  <si>
+    <t>if#2022</t>
+  </si>
+  <si>
+    <t>123456ay</t>
+  </si>
+  <si>
+    <t>password@123y</t>
   </si>
 </sst>
 </file>
@@ -627,7 +633,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -645,6 +651,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1116,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,33 +1144,42 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://13.127.132.18/squirrelmail/src/compose.php?send_to=ajayd%40ifieldsmart.com" xr:uid="{DC039A6D-DDB6-4666-9C7E-617789BA3005}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7AA3E9E2-78C9-4F38-9B68-BCD12CCC30AF}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{4FFB19B2-6786-4BB5-9F75-75E4D4641FD5}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{DC039A6D-DDB6-4666-9C7E-617789BA3005}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7AA3E9E2-78C9-4F38-9B68-BCD12CCC30AF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4FFB19B2-6786-4BB5-9F75-75E4D4641FD5}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{5E08D84F-3CCE-4A43-9B8C-B194B1119206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 
